--- a/plots/basic_stats/single_var_stats/allmus_summary_var-subject_matter_simpl_aggr.xlsx
+++ b/plots/basic_stats/single_var_stats/allmus_summary_var-subject_matter_simpl_aggr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,14 +382,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>local_histories</t>
+          <t>SMALL_SUBJECTS</t>
         </is>
       </c>
       <c r="B2">
-        <v>858</v>
+        <v>1626</v>
       </c>
       <c r="C2">
-        <v>21.39</v>
+        <v>38.45</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -400,14 +400,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>buildings</t>
+          <t>NOT_AVAIL</t>
         </is>
       </c>
       <c r="B3">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>15.2</v>
+        <v>23.65</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -418,14 +418,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>war_and_conflict</t>
+          <t>houses</t>
         </is>
       </c>
       <c r="B4">
-        <v>370</v>
+        <v>517</v>
       </c>
       <c r="C4">
-        <v>9.220000000000001</v>
+        <v>12.23</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -436,14 +436,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SMALL_SUBJECTS</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B5">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -454,14 +454,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>fine_and_decorative_arts</t>
         </is>
       </c>
       <c r="B6">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="C6">
-        <v>7.75</v>
+        <v>4.63</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -472,14 +472,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>trains_and_railways</t>
         </is>
       </c>
       <c r="B7">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <v>7.65</v>
+        <v>3.38</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C8">
-        <v>4.99</v>
+        <v>3.22</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -508,14 +508,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>regiment</t>
         </is>
       </c>
       <c r="B9">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C9">
-        <v>4.86</v>
+        <v>3.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -526,106 +526,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rural_industry</t>
+          <t>encyclopaedic</t>
         </is>
       </c>
       <c r="B10">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C10">
-        <v>4.56</v>
+        <v>2.81</v>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>all_museums-subject_matter_simpl_aggr</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>industry_and_manufacture</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>182</v>
-      </c>
-      <c r="C11">
-        <v>4.54</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>all_museums-subject_matter_simpl_aggr</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>leisure_and_sport</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>132</v>
-      </c>
-      <c r="C12">
-        <v>3.29</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>all_museums-subject_matter_simpl_aggr</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>sea_and_seafaring</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>119</v>
-      </c>
-      <c r="C13">
-        <v>2.97</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>all_museums-subject_matter_simpl_aggr</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>archaeology</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>106</v>
-      </c>
-      <c r="C14">
-        <v>2.64</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>all_museums-subject_matter_simpl_aggr</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>belief_and_identity</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>102</v>
-      </c>
-      <c r="C15">
-        <v>2.54</v>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>all_museums-subject_matter_simpl_aggr</t>
         </is>

--- a/plots/basic_stats/single_var_stats/allmus_summary_var-subject_matter_simpl_aggr.xlsx
+++ b/plots/basic_stats/single_var_stats/allmus_summary_var-subject_matter_simpl_aggr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,14 +382,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SMALL_SUBJECTS</t>
+          <t>local_histories</t>
         </is>
       </c>
       <c r="B2">
-        <v>1626</v>
+        <v>891</v>
       </c>
       <c r="C2">
-        <v>38.45</v>
+        <v>21.07</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -400,14 +400,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NOT_AVAIL</t>
+          <t>buildings</t>
         </is>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>607</v>
       </c>
       <c r="C3">
-        <v>23.65</v>
+        <v>14.35</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -418,14 +418,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>houses</t>
+          <t>war_and_conflict</t>
         </is>
       </c>
       <c r="B4">
-        <v>517</v>
+        <v>404</v>
       </c>
       <c r="C4">
-        <v>12.23</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -436,14 +436,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>SMALL_SUBJECTS</t>
         </is>
       </c>
       <c r="B5">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C5">
-        <v>8.539999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -454,14 +454,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fine_and_decorative_arts</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="B6">
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="C6">
-        <v>4.63</v>
+        <v>7.83</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -472,14 +472,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trains_and_railways</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="B7">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c r="C7">
-        <v>3.38</v>
+        <v>7.71</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="C8">
-        <v>3.22</v>
+        <v>5.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -508,14 +508,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>regiment</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="B9">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>4.92</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -526,16 +526,106 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>encyclopaedic</t>
+          <t>industry_and_manufacture</t>
         </is>
       </c>
       <c r="B10">
+        <v>196</v>
+      </c>
+      <c r="C10">
+        <v>4.63</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>all_museums-subject_matter_simpl_aggr</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>rural_industry</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>187</v>
+      </c>
+      <c r="C11">
+        <v>4.42</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>all_museums-subject_matter_simpl_aggr</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>leisure_and_sport</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>3.33</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>all_museums-subject_matter_simpl_aggr</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sea_and_seafaring</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>3.12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>all_museums-subject_matter_simpl_aggr</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>belief_and_identity</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>119</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>2.81</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>all_museums-subject_matter_simpl_aggr</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>archaeology</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>2.55</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>all_museums-subject_matter_simpl_aggr</t>
         </is>
